--- a/doc/ue_loadmap.xlsx
+++ b/doc/ue_loadmap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B966C32B-C63E-42A7-B92F-D0315F350BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B352C4-A773-4240-8561-5C9932F08CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="46">
   <si>
     <t>场景切换的详细过程</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -190,6 +190,10 @@
   </si>
   <si>
     <t>内部会死等世界分区中，玩家周围关卡加载完成（和流式关卡场景不同的地方）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先进行其他对象的StartPlay；这个顺序很重要，例如LevelScriptActor::BeginPlay里面开始设置位置，加载UI等</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -799,10 +803,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB2DCD22-5271-4535-9AEA-D19A10BA5922}">
-  <dimension ref="A3:Q39"/>
+  <dimension ref="A3:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1037,61 +1041,72 @@
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1" t="s">
-        <v>44</v>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B32" s="1"/>
-      <c r="F32" t="s">
-        <v>31</v>
+      <c r="E32" s="1">
+        <v>2</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B33" s="1"/>
       <c r="F33" t="s">
-        <v>32</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B34" s="1"/>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B35" s="1"/>
-      <c r="F35" s="1" t="s">
+      <c r="F35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B36" s="1"/>
+      <c r="F36" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B36" s="1">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B37" s="1">
         <v>12</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C37" t="s">
-        <v>14</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>34</v>
+        <v>14</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
         <v>30</v>
       </c>
     </row>

--- a/doc/ue_loadmap.xlsx
+++ b/doc/ue_loadmap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B352C4-A773-4240-8561-5C9932F08CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95388D3D-B632-4515-9DB4-B53B60BCFE28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -578,7 +578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A2BD710-897E-4B5C-B613-2D7F28C1C39C}">
   <dimension ref="A3:P29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
@@ -805,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB2DCD22-5271-4535-9AEA-D19A10BA5922}">
   <dimension ref="A3:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/doc/ue_loadmap.xlsx
+++ b/doc/ue_loadmap.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95388D3D-B632-4515-9DB4-B53B60BCFE28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAF7025-8584-4AFF-9AFE-8B646E56D962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="UE4" sheetId="2" r:id="rId2"/>
     <sheet name="UE5" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
   <si>
     <t>场景切换的详细过程</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -195,6 +196,19 @@
   <si>
     <t>先进行其他对象的StartPlay；这个顺序很重要，例如LevelScriptActor::BeginPlay里面开始设置位置，加载UI等</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FlushAsyncLoading(int32 PackageID /* = INDEX_NONE */)</t>
+  </si>
+  <si>
+    <t>GPackageLoader-&gt;FlushLoading(PackageID);</t>
+  </si>
+  <si>
+    <t>void FAsyncLoadingThread::FlushLoading(int32 PackageID)</t>
   </si>
 </sst>
 </file>
@@ -289,6 +303,187 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>65552</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>75919</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D795EA1-5FFE-F7AE-BDC9-906574EF9400}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="1266825"/>
+          <a:ext cx="8980952" cy="2247619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>160892</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>151696</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F023C997-13B8-B43A-EB8A-223C389B98E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2867025" y="4657725"/>
+          <a:ext cx="8266667" cy="5628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>627126</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>113623</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83B37C05-4D71-47AF-E0B3-C38649048F64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2152650" y="12249150"/>
+          <a:ext cx="12190476" cy="5419048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>627434</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>103737</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE851FEB-1382-9C8B-A25A-DB00FD21CA32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1876425" y="19307175"/>
+          <a:ext cx="9723809" cy="8304762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -578,7 +773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A2BD710-897E-4B5C-B613-2D7F28C1C39C}">
   <dimension ref="A3:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
@@ -1114,4 +1309,47 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F414C63-B1E7-4635-BDD5-7638F8B2D214}">
+  <dimension ref="C6:D67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="H105" sqref="H105"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C65" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D66" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C67" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>